--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -31,7 +31,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t>类型(1:数值,2:千分比)</t>
+    <t>类型(0:整数,1:小数)</t>
   </si>
   <si>
     <t>显示</t>
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -234,6 +234,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -243,6 +272,45 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,109 +324,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,10 +349,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,49 +393,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,133 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,13 +587,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,21 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,6 +637,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,24 +669,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -692,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="C2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,15 +1310,9 @@
         <v>18</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" ht="14.25" spans="3:10">
@@ -1334,15 +1328,9 @@
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1360,15 +1348,9 @@
       <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1386,15 +1368,9 @@
       <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1412,12 +1388,8 @@
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>1</v>
       </c>
@@ -1438,12 +1410,8 @@
       <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
         <v>1</v>
       </c>
@@ -1464,15 +1432,9 @@
       <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1490,12 +1452,8 @@
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3">
         <v>1</v>
       </c>
@@ -1516,12 +1474,8 @@
       <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
         <v>1</v>
       </c>
@@ -1545,9 +1499,7 @@
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4">
         <v>1</v>
       </c>
@@ -1568,12 +1520,8 @@
       <c r="F16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="4">
         <v>1</v>
       </c>
@@ -1594,12 +1542,8 @@
       <c r="F17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4">
         <v>1</v>
       </c>
